--- a/Code/Results/Cases/Case_1_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_line/pl_mw.xlsx
@@ -427,25 +427,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04162306229650881</v>
+        <v>0.1058422808890214</v>
       </c>
       <c r="E2">
-        <v>0.09120946875003</v>
+        <v>0.1302817993333925</v>
       </c>
       <c r="F2">
-        <v>4.850323898674986</v>
+        <v>2.878478165862106</v>
       </c>
       <c r="G2">
-        <v>5.024754028769962</v>
+        <v>2.368769996223534</v>
       </c>
       <c r="H2">
-        <v>2.478437217176349</v>
+        <v>1.696868061312728</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2834536328317796</v>
+        <v>0.2151472402880046</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -474,25 +474,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04051448239177269</v>
+        <v>0.1057099897462948</v>
       </c>
       <c r="E3">
-        <v>0.08235840762005964</v>
+        <v>0.1293762481430178</v>
       </c>
       <c r="F3">
-        <v>4.184349719911296</v>
+        <v>2.750918434283108</v>
       </c>
       <c r="G3">
-        <v>4.307863690085782</v>
+        <v>2.222640816841476</v>
       </c>
       <c r="H3">
-        <v>2.147840287562019</v>
+        <v>1.636692919714079</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2465701843890429</v>
+        <v>0.2087731488325062</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -521,25 +521,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03987585271779359</v>
+        <v>0.105631608910782</v>
       </c>
       <c r="E4">
-        <v>0.07719071603106187</v>
+        <v>0.1288919000434845</v>
       </c>
       <c r="F4">
-        <v>3.791403568693596</v>
+        <v>2.674709327376604</v>
       </c>
       <c r="G4">
-        <v>3.884242782924758</v>
+        <v>2.134686660620076</v>
       </c>
       <c r="H4">
-        <v>1.953080656404723</v>
+        <v>1.600961959854402</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2248672674739538</v>
+        <v>0.2050120596131251</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -568,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.039624230665261</v>
+        <v>0.1056003683076687</v>
       </c>
       <c r="E5">
-        <v>0.07514308405043835</v>
+        <v>0.1287124574646796</v>
       </c>
       <c r="F5">
-        <v>3.634651796505182</v>
+        <v>2.64417696227224</v>
       </c>
       <c r="G5">
-        <v>3.715094691874185</v>
+        <v>2.099280920985336</v>
       </c>
       <c r="H5">
-        <v>1.87546067043084</v>
+        <v>1.586703403558658</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2162241354805019</v>
+        <v>0.2035173224340951</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03958291947778214</v>
+        <v>0.1055952226750865</v>
       </c>
       <c r="E6">
-        <v>0.07480635882001607</v>
+        <v>0.1286837417798736</v>
       </c>
       <c r="F6">
-        <v>3.608810373370773</v>
+        <v>2.639138474748648</v>
       </c>
       <c r="G6">
-        <v>3.687199986104503</v>
+        <v>2.093427924020773</v>
       </c>
       <c r="H6">
-        <v>1.862668850673543</v>
+        <v>1.584353915396832</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2148001275454448</v>
+        <v>0.2032714010194852</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03987242665618052</v>
+        <v>0.1056311847743245</v>
       </c>
       <c r="E7">
-        <v>0.07716287591506443</v>
+        <v>0.1288894075202123</v>
       </c>
       <c r="F7">
-        <v>3.789276660458171</v>
+        <v>2.674295448035082</v>
       </c>
       <c r="G7">
-        <v>3.881948326126377</v>
+        <v>2.134207411306051</v>
       </c>
       <c r="H7">
-        <v>1.952027168106895</v>
+        <v>1.600768445849013</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2247499335128254</v>
+        <v>0.2049917480358658</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0412308075246024</v>
+        <v>0.1057960665953246</v>
       </c>
       <c r="E8">
-        <v>0.08809645794671894</v>
+        <v>0.1299546375540537</v>
       </c>
       <c r="F8">
-        <v>4.616966922952486</v>
+        <v>2.834052162487808</v>
       </c>
       <c r="G8">
-        <v>4.773690368440214</v>
+        <v>2.318011996819564</v>
       </c>
       <c r="H8">
-        <v>2.362529046424356</v>
+        <v>1.67586474095458</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2705166943902526</v>
+        <v>0.2129175040230962</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -756,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04434027670217588</v>
+        <v>0.1061427228874194</v>
       </c>
       <c r="E9">
-        <v>0.1121412317307531</v>
+        <v>0.1326164825695493</v>
       </c>
       <c r="F9">
-        <v>6.401883690225617</v>
+        <v>3.164481609022914</v>
       </c>
       <c r="G9">
-        <v>6.691324449569834</v>
+        <v>2.692914156986433</v>
       </c>
       <c r="H9">
-        <v>3.250625457680655</v>
+        <v>1.832970800450028</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3697532145306468</v>
+        <v>0.2296922894000204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -803,25 +803,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04710800698831186</v>
+        <v>0.1064127074359433</v>
       </c>
       <c r="E10">
-        <v>0.1322578153812159</v>
+        <v>0.1349279334951774</v>
       </c>
       <c r="F10">
-        <v>7.874751479112376</v>
+        <v>3.418265018242863</v>
       </c>
       <c r="G10">
-        <v>8.270465649153664</v>
+        <v>2.977790851650354</v>
       </c>
       <c r="H10">
-        <v>3.985657395166754</v>
+        <v>1.954674957977716</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4520196799239642</v>
+        <v>0.2427996710749483</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -850,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04854366836573831</v>
+        <v>0.1065390964415354</v>
       </c>
       <c r="E11">
-        <v>0.1422116209382303</v>
+        <v>0.1360582219595372</v>
       </c>
       <c r="F11">
-        <v>8.599716899595848</v>
+        <v>3.536236937462036</v>
       </c>
       <c r="G11">
-        <v>9.047105349505955</v>
+        <v>3.109577001089917</v>
       </c>
       <c r="H11">
-        <v>4.348053639597254</v>
+        <v>2.011467405619044</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4926040446385826</v>
+        <v>0.248939710659613</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04912162879255</v>
+        <v>0.1065874905544675</v>
       </c>
       <c r="E12">
-        <v>0.1461277547264572</v>
+        <v>0.1364976832433129</v>
       </c>
       <c r="F12">
-        <v>8.884478073854751</v>
+        <v>3.581282987014646</v>
       </c>
       <c r="G12">
-        <v>9.352083064803708</v>
+        <v>3.159807628917747</v>
       </c>
       <c r="H12">
-        <v>4.490500855715311</v>
+        <v>2.033183669984112</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5085591740632651</v>
+        <v>0.2512908683670503</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04899544965035574</v>
+        <v>0.1065770439750011</v>
       </c>
       <c r="E13">
-        <v>0.1452772041483499</v>
+        <v>0.136402526482847</v>
       </c>
       <c r="F13">
-        <v>8.822649077710793</v>
+        <v>3.571564784942154</v>
       </c>
       <c r="G13">
-        <v>9.285867886501819</v>
+        <v>3.148974891615239</v>
       </c>
       <c r="H13">
-        <v>4.45956718261192</v>
+        <v>2.028497258030598</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5050942797134752</v>
+        <v>0.2507833367247514</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04859046671031919</v>
+        <v>0.1065430670494329</v>
       </c>
       <c r="E14">
-        <v>0.1425306446752614</v>
+        <v>0.1360941466472703</v>
       </c>
       <c r="F14">
-        <v>8.622923203844294</v>
+        <v>3.539935378736089</v>
       </c>
       <c r="G14">
-        <v>9.071960700315685</v>
+        <v>3.113702908760615</v>
       </c>
       <c r="H14">
-        <v>4.359660138630716</v>
+        <v>2.013249775342672</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4939040121280271</v>
+        <v>0.2491326164060297</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1038,25 +1038,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04834719252504449</v>
+        <v>0.1065223252557637</v>
       </c>
       <c r="E15">
-        <v>0.14086852308996</v>
+        <v>0.1359067491117685</v>
       </c>
       <c r="F15">
-        <v>8.5019999991286</v>
+        <v>3.520610273166028</v>
       </c>
       <c r="G15">
-        <v>8.942441521644071</v>
+        <v>3.092140582485115</v>
       </c>
       <c r="H15">
-        <v>4.299185188660488</v>
+        <v>2.003937769424056</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4871307092547568</v>
+        <v>0.2481249124801792</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1085,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04701842661000022</v>
+        <v>0.1064045211602309</v>
       </c>
       <c r="E16">
-        <v>0.1316259344029547</v>
+        <v>0.1348556618024794</v>
       </c>
       <c r="F16">
-        <v>7.828661966632154</v>
+        <v>3.410606892642249</v>
       </c>
       <c r="G16">
-        <v>8.221079382949597</v>
+        <v>2.96922336625795</v>
       </c>
       <c r="H16">
-        <v>3.962630935691038</v>
+        <v>1.950992589575776</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4494413804276292</v>
+        <v>0.24240202150051</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04625389486521492</v>
+        <v>0.1063331807879706</v>
       </c>
       <c r="E17">
-        <v>0.126181007038987</v>
+        <v>0.1342311160740586</v>
       </c>
       <c r="F17">
-        <v>7.431107496256203</v>
+        <v>3.343776744307434</v>
       </c>
       <c r="G17">
-        <v>7.795020981322011</v>
+        <v>2.894387060466499</v>
       </c>
       <c r="H17">
-        <v>3.764077421579259</v>
+        <v>1.918881687400244</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.427211638472258</v>
+        <v>0.2389370388623036</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04583009834097318</v>
+        <v>0.1062924826548031</v>
       </c>
       <c r="E18">
-        <v>0.1231224470740386</v>
+        <v>0.1338793036319004</v>
       </c>
       <c r="F18">
-        <v>7.207443111385061</v>
+        <v>3.305574844941731</v>
       </c>
       <c r="G18">
-        <v>7.555262576986706</v>
+        <v>2.851549089412686</v>
       </c>
       <c r="H18">
-        <v>3.652424255863139</v>
+        <v>1.900546521073124</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4147133530077127</v>
+        <v>0.2369607392022033</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04568912425809835</v>
+        <v>0.1062787599070294</v>
       </c>
       <c r="E19">
-        <v>0.1220986372256334</v>
+        <v>0.1337614551878588</v>
       </c>
       <c r="F19">
-        <v>7.132512926873744</v>
+        <v>3.292680760349441</v>
       </c>
       <c r="G19">
-        <v>7.474930559262418</v>
+        <v>2.837079934219787</v>
       </c>
       <c r="H19">
-        <v>3.615027927829999</v>
+        <v>1.894361450487565</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4105276656239454</v>
+        <v>0.2362944442791246</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1273,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04633357616474143</v>
+        <v>0.1063407402845478</v>
       </c>
       <c r="E20">
-        <v>0.1267528533709061</v>
+        <v>0.1342968323354974</v>
       </c>
       <c r="F20">
-        <v>7.472895924786883</v>
+        <v>3.350866326720222</v>
       </c>
       <c r="G20">
-        <v>7.839811525199764</v>
+        <v>2.902332128429407</v>
       </c>
       <c r="H20">
-        <v>3.784942487022079</v>
+        <v>1.922286027038183</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4295474305242095</v>
+        <v>0.2393041633429362</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04870840090295125</v>
+        <v>0.1065530322611821</v>
       </c>
       <c r="E21">
-        <v>0.1433330898613008</v>
+        <v>0.136184413718599</v>
       </c>
       <c r="F21">
-        <v>8.681287426108241</v>
+        <v>3.549215510681393</v>
       </c>
       <c r="G21">
-        <v>9.134471070413099</v>
+        <v>3.124054210283646</v>
       </c>
       <c r="H21">
-        <v>4.388852308911623</v>
+        <v>2.017722587295964</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.497173672360077</v>
+        <v>0.2496167613588085</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05046740922673365</v>
+        <v>0.1066948957063101</v>
       </c>
       <c r="E22">
-        <v>0.1550479381577006</v>
+        <v>0.1374848268051814</v>
       </c>
       <c r="F22">
-        <v>9.53239252690517</v>
+        <v>3.681024872415435</v>
       </c>
       <c r="G22">
-        <v>10.04586460440606</v>
+        <v>3.270868098814447</v>
       </c>
       <c r="H22">
-        <v>4.81481300855279</v>
+        <v>2.081323391753415</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5448878574761835</v>
+        <v>0.2565087896801259</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04950573319111129</v>
+        <v>0.1066188884859898</v>
       </c>
       <c r="E23">
-        <v>0.1487018517919694</v>
+        <v>0.1367846235793309</v>
       </c>
       <c r="F23">
-        <v>9.071539019827725</v>
+        <v>3.610473322205934</v>
       </c>
       <c r="G23">
-        <v>9.552403710438341</v>
+        <v>3.192332840114602</v>
       </c>
       <c r="H23">
-        <v>4.584105078277844</v>
+        <v>2.047264520717533</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5190441050026493</v>
+        <v>0.2528162789516699</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1461,25 +1461,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04629750383542763</v>
+        <v>0.106337321651834</v>
       </c>
       <c r="E24">
-        <v>0.1264941002249813</v>
+        <v>0.1342670994488628</v>
       </c>
       <c r="F24">
-        <v>7.453988294254259</v>
+        <v>3.347660443095833</v>
       </c>
       <c r="G24">
-        <v>7.819545736806788</v>
+        <v>2.898739583346071</v>
       </c>
       <c r="H24">
-        <v>3.775501694334025</v>
+        <v>1.920746533548197</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4284905502622536</v>
+        <v>0.2391381373017936</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04343309283106755</v>
+        <v>0.1060463370008105</v>
       </c>
       <c r="E25">
-        <v>0.105280435837237</v>
+        <v>0.131834385398875</v>
       </c>
       <c r="F25">
-        <v>5.896092321674075</v>
+        <v>3.073198553213189</v>
       </c>
       <c r="G25">
-        <v>6.148476221074191</v>
+        <v>2.589881758271019</v>
       </c>
       <c r="H25">
-        <v>2.998635012376667</v>
+        <v>1.789387422476466</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3415727246335791</v>
+        <v>0.2250191059075632</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_147/res_line/pl_mw.xlsx
@@ -427,25 +427,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1058422808890214</v>
+        <v>0.0416230622965017</v>
       </c>
       <c r="E2">
-        <v>0.1302817993333925</v>
+        <v>0.09120946875002289</v>
       </c>
       <c r="F2">
-        <v>2.878478165862106</v>
+        <v>4.850323898674986</v>
       </c>
       <c r="G2">
-        <v>2.368769996223534</v>
+        <v>5.024754028769962</v>
       </c>
       <c r="H2">
-        <v>1.696868061312728</v>
+        <v>2.478437217176349</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2151472402880046</v>
+        <v>0.2834536328318507</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -474,25 +474,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1057099897462948</v>
+        <v>0.04051448239134814</v>
       </c>
       <c r="E3">
-        <v>0.1293762481430178</v>
+        <v>0.08235840762005608</v>
       </c>
       <c r="F3">
-        <v>2.750918434283108</v>
+        <v>4.184349719911296</v>
       </c>
       <c r="G3">
-        <v>2.222640816841476</v>
+        <v>4.307863690085867</v>
       </c>
       <c r="H3">
-        <v>1.636692919714079</v>
+        <v>2.147840287561962</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2087731488325062</v>
+        <v>0.2465701843889434</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -521,25 +521,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.105631608910782</v>
+        <v>0.03987585271778737</v>
       </c>
       <c r="E4">
-        <v>0.1288919000434845</v>
+        <v>0.07719071603106542</v>
       </c>
       <c r="F4">
-        <v>2.674709327376604</v>
+        <v>3.791403568693568</v>
       </c>
       <c r="G4">
-        <v>2.134686660620076</v>
+        <v>3.884242782924673</v>
       </c>
       <c r="H4">
-        <v>1.600961959854402</v>
+        <v>1.953080656404836</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2050120596131251</v>
+        <v>0.2248672674740106</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -568,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1056003683076687</v>
+        <v>0.039624230665261</v>
       </c>
       <c r="E5">
-        <v>0.1287124574646796</v>
+        <v>0.0751430840504419</v>
       </c>
       <c r="F5">
-        <v>2.64417696227224</v>
+        <v>3.634651796505182</v>
       </c>
       <c r="G5">
-        <v>2.099280920985336</v>
+        <v>3.715094691874128</v>
       </c>
       <c r="H5">
-        <v>1.586703403558658</v>
+        <v>1.875460670430812</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2035173224340951</v>
+        <v>0.2162241354803882</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1055952226750865</v>
+        <v>0.03958291947804327</v>
       </c>
       <c r="E6">
-        <v>0.1286837417798736</v>
+        <v>0.07480635882001252</v>
       </c>
       <c r="F6">
-        <v>2.639138474748648</v>
+        <v>3.608810373370744</v>
       </c>
       <c r="G6">
-        <v>2.093427924020773</v>
+        <v>3.687199986104474</v>
       </c>
       <c r="H6">
-        <v>1.584353915396832</v>
+        <v>1.862668850673515</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2032714010194852</v>
+        <v>0.2148001275454448</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1056311847743245</v>
+        <v>0.03987242665639368</v>
       </c>
       <c r="E7">
-        <v>0.1288894075202123</v>
+        <v>0.07716287591499693</v>
       </c>
       <c r="F7">
-        <v>2.674295448035082</v>
+        <v>3.789276660458171</v>
       </c>
       <c r="G7">
-        <v>2.134207411306051</v>
+        <v>3.881948326126491</v>
       </c>
       <c r="H7">
-        <v>1.600768445849013</v>
+        <v>1.952027168107008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2049917480358658</v>
+        <v>0.2247499335128111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1057960665953246</v>
+        <v>0.04123080752473385</v>
       </c>
       <c r="E8">
-        <v>0.1299546375540537</v>
+        <v>0.08809645794674381</v>
       </c>
       <c r="F8">
-        <v>2.834052162487808</v>
+        <v>4.616966922952571</v>
       </c>
       <c r="G8">
-        <v>2.318011996819564</v>
+        <v>4.773690368440214</v>
       </c>
       <c r="H8">
-        <v>1.67586474095458</v>
+        <v>2.362529046424186</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2129175040230962</v>
+        <v>0.27051669439021</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -756,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1061427228874194</v>
+        <v>0.04434027670201246</v>
       </c>
       <c r="E9">
-        <v>0.1326164825695493</v>
+        <v>0.1121412317307779</v>
       </c>
       <c r="F9">
-        <v>3.164481609022914</v>
+        <v>6.401883690225588</v>
       </c>
       <c r="G9">
-        <v>2.692914156986433</v>
+        <v>6.691324449569777</v>
       </c>
       <c r="H9">
-        <v>1.832970800450028</v>
+        <v>3.250625457680655</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2296922894000204</v>
+        <v>0.3697532145305615</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -803,25 +803,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1064127074359433</v>
+        <v>0.0471080069882639</v>
       </c>
       <c r="E10">
-        <v>0.1349279334951774</v>
+        <v>0.1322578153812302</v>
       </c>
       <c r="F10">
-        <v>3.418265018242863</v>
+        <v>7.874751479112433</v>
       </c>
       <c r="G10">
-        <v>2.977790851650354</v>
+        <v>8.270465649153778</v>
       </c>
       <c r="H10">
-        <v>1.954674957977716</v>
+        <v>3.985657395166754</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2427996710749483</v>
+        <v>0.4520196799239073</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -850,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1065390964415354</v>
+        <v>0.04854366836592838</v>
       </c>
       <c r="E11">
-        <v>0.1360582219595372</v>
+        <v>0.1422116209382587</v>
       </c>
       <c r="F11">
-        <v>3.536236937462036</v>
+        <v>8.599716899595819</v>
       </c>
       <c r="G11">
-        <v>3.109577001089917</v>
+        <v>9.047105349505841</v>
       </c>
       <c r="H11">
-        <v>2.011467405619044</v>
+        <v>4.348053639597254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.248939710659613</v>
+        <v>0.4926040446385684</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1065874905544675</v>
+        <v>0.04912162879254467</v>
       </c>
       <c r="E12">
-        <v>0.1364976832433129</v>
+        <v>0.1461277547264999</v>
       </c>
       <c r="F12">
-        <v>3.581282987014646</v>
+        <v>8.88447807385478</v>
       </c>
       <c r="G12">
-        <v>3.159807628917747</v>
+        <v>9.352083064803651</v>
       </c>
       <c r="H12">
-        <v>2.033183669984112</v>
+        <v>4.490500855715368</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2512908683670503</v>
+        <v>0.5085591740632509</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1065770439750011</v>
+        <v>0.04899544965033797</v>
       </c>
       <c r="E13">
-        <v>0.136402526482847</v>
+        <v>0.1452772041483428</v>
       </c>
       <c r="F13">
-        <v>3.571564784942154</v>
+        <v>8.822649077710821</v>
       </c>
       <c r="G13">
-        <v>3.148974891615239</v>
+        <v>9.28586788650199</v>
       </c>
       <c r="H13">
-        <v>2.028497258030598</v>
+        <v>4.459567182611863</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2507833367247514</v>
+        <v>0.5050942797134184</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1065430670494329</v>
+        <v>0.0485904667101309</v>
       </c>
       <c r="E14">
-        <v>0.1360941466472703</v>
+        <v>0.1425306446752366</v>
       </c>
       <c r="F14">
-        <v>3.539935378736089</v>
+        <v>8.622923203844266</v>
       </c>
       <c r="G14">
-        <v>3.113702908760615</v>
+        <v>9.071960700315799</v>
       </c>
       <c r="H14">
-        <v>2.013249775342672</v>
+        <v>4.359660138630659</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2491326164060297</v>
+        <v>0.4939040121280556</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1038,25 +1038,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1065223252557637</v>
+        <v>0.0483471925248331</v>
       </c>
       <c r="E15">
-        <v>0.1359067491117685</v>
+        <v>0.1408685230899884</v>
       </c>
       <c r="F15">
-        <v>3.520610273166028</v>
+        <v>8.501999999128628</v>
       </c>
       <c r="G15">
-        <v>3.092140582485115</v>
+        <v>8.942441521644014</v>
       </c>
       <c r="H15">
-        <v>2.003937769424056</v>
+        <v>4.299185188660488</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2481249124801792</v>
+        <v>0.4871307092546715</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1085,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1064045211602309</v>
+        <v>0.04701842661002686</v>
       </c>
       <c r="E16">
-        <v>0.1348556618024794</v>
+        <v>0.1316259344029511</v>
       </c>
       <c r="F16">
-        <v>3.410606892642249</v>
+        <v>7.828661966632126</v>
       </c>
       <c r="G16">
-        <v>2.96922336625795</v>
+        <v>8.221079382949654</v>
       </c>
       <c r="H16">
-        <v>1.950992589575776</v>
+        <v>3.962630935691038</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.24240202150051</v>
+        <v>0.4494413804276292</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1063331807879706</v>
+        <v>0.04625389486523268</v>
       </c>
       <c r="E17">
-        <v>0.1342311160740586</v>
+        <v>0.126181007038948</v>
       </c>
       <c r="F17">
-        <v>3.343776744307434</v>
+        <v>7.431107496256146</v>
       </c>
       <c r="G17">
-        <v>2.894387060466499</v>
+        <v>7.795020981322068</v>
       </c>
       <c r="H17">
-        <v>1.918881687400244</v>
+        <v>3.764077421579202</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2389370388623036</v>
+        <v>0.4272116384724001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1062924826548031</v>
+        <v>0.04583009834074581</v>
       </c>
       <c r="E18">
-        <v>0.1338793036319004</v>
+        <v>0.1231224470740315</v>
       </c>
       <c r="F18">
-        <v>3.305574844941731</v>
+        <v>7.207443111385118</v>
       </c>
       <c r="G18">
-        <v>2.851549089412686</v>
+        <v>7.555262576986934</v>
       </c>
       <c r="H18">
-        <v>1.900546521073124</v>
+        <v>3.652424255863082</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2369607392022033</v>
+        <v>0.4147133530076701</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1062787599070294</v>
+        <v>0.04568912425792782</v>
       </c>
       <c r="E19">
-        <v>0.1337614551878588</v>
+        <v>0.1220986372256583</v>
       </c>
       <c r="F19">
-        <v>3.292680760349441</v>
+        <v>7.132512926873744</v>
       </c>
       <c r="G19">
-        <v>2.837079934219787</v>
+        <v>7.474930559262305</v>
       </c>
       <c r="H19">
-        <v>1.894361450487565</v>
+        <v>3.615027927830056</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2362944442791246</v>
+        <v>0.4105276656239454</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1273,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1063407402845478</v>
+        <v>0.04633357616494926</v>
       </c>
       <c r="E20">
-        <v>0.1342968323354974</v>
+        <v>0.1267528533708777</v>
       </c>
       <c r="F20">
-        <v>3.350866326720222</v>
+        <v>7.472895924786883</v>
       </c>
       <c r="G20">
-        <v>2.902332128429407</v>
+        <v>7.839811525199821</v>
       </c>
       <c r="H20">
-        <v>1.922286027038183</v>
+        <v>3.784942487022079</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2393041633429362</v>
+        <v>0.4295474305242095</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1065530322611821</v>
+        <v>0.04870840090295125</v>
       </c>
       <c r="E21">
-        <v>0.136184413718599</v>
+        <v>0.1433330898613008</v>
       </c>
       <c r="F21">
-        <v>3.549215510681393</v>
+        <v>8.681287426108241</v>
       </c>
       <c r="G21">
-        <v>3.124054210283646</v>
+        <v>9.134471070413156</v>
       </c>
       <c r="H21">
-        <v>2.017722587295964</v>
+        <v>4.388852308911567</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2496167613588085</v>
+        <v>0.4971736723601907</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1066948957063101</v>
+        <v>0.05046740922691662</v>
       </c>
       <c r="E22">
-        <v>0.1374848268051814</v>
+        <v>0.1550479381577006</v>
       </c>
       <c r="F22">
-        <v>3.681024872415435</v>
+        <v>9.532392526905227</v>
       </c>
       <c r="G22">
-        <v>3.270868098814447</v>
+        <v>10.04586460440601</v>
       </c>
       <c r="H22">
-        <v>2.081323391753415</v>
+        <v>4.81481300855296</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2565087896801259</v>
+        <v>0.5448878574762404</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1066188884859898</v>
+        <v>0.04950573319130314</v>
       </c>
       <c r="E23">
-        <v>0.1367846235793309</v>
+        <v>0.1487018517919942</v>
       </c>
       <c r="F23">
-        <v>3.610473322205934</v>
+        <v>9.071539019827725</v>
       </c>
       <c r="G23">
-        <v>3.192332840114602</v>
+        <v>9.552403710438227</v>
       </c>
       <c r="H23">
-        <v>2.047264520717533</v>
+        <v>4.584105078277787</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2528162789516699</v>
+        <v>0.519044105002564</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1461,25 +1461,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.106337321651834</v>
+        <v>0.04629750383542763</v>
       </c>
       <c r="E24">
-        <v>0.1342670994488628</v>
+        <v>0.1264941002250062</v>
       </c>
       <c r="F24">
-        <v>3.347660443095833</v>
+        <v>7.453988294254231</v>
       </c>
       <c r="G24">
-        <v>2.898739583346071</v>
+        <v>7.819545736806845</v>
       </c>
       <c r="H24">
-        <v>1.920746533548197</v>
+        <v>3.775501694333968</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2391381373017936</v>
+        <v>0.4284905502620688</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1060463370008105</v>
+        <v>0.04343309283139973</v>
       </c>
       <c r="E25">
-        <v>0.131834385398875</v>
+        <v>0.1052804358372121</v>
       </c>
       <c r="F25">
-        <v>3.073198553213189</v>
+        <v>5.896092321674047</v>
       </c>
       <c r="G25">
-        <v>2.589881758271019</v>
+        <v>6.148476221074304</v>
       </c>
       <c r="H25">
-        <v>1.789387422476466</v>
+        <v>2.998635012376724</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2250191059075632</v>
+        <v>0.3415727246337639</v>
       </c>
       <c r="K25">
         <v>0</v>
